--- a/Graphs/ar6_10_シフト解析.xlsx
+++ b/Graphs/ar6_10_シフト解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3072,8 +3072,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="908248728"/>
-        <c:axId val="908248336"/>
+        <c:axId val="513029888"/>
+        <c:axId val="513034200"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6049,7 +6049,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -7507,7 +7507,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$482</c15:sqref>
@@ -8994,7 +8994,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -10452,7 +10452,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2:$E$482</c15:sqref>
@@ -11939,7 +11939,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -13397,7 +13397,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$482</c15:sqref>
@@ -14884,7 +14884,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -16342,7 +16342,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$G$482</c15:sqref>
@@ -17833,7 +17833,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -19291,7 +19291,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$482</c15:sqref>
@@ -20782,7 +20782,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -22240,7 +22240,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$2:$I$482</c15:sqref>
@@ -23731,7 +23731,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -25189,7 +25189,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$482</c15:sqref>
@@ -26680,7 +26680,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -28138,7 +28138,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$2:$K$482</c15:sqref>
@@ -29629,7 +29629,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$482</c15:sqref>
@@ -31087,7 +31087,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$482</c15:sqref>
@@ -32550,7 +32550,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="908248728"/>
+        <c:axId val="513029888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32607,12 +32607,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908248336"/>
+        <c:crossAx val="513034200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="908248336"/>
+        <c:axId val="513034200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32669,7 +32669,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908248728"/>
+        <c:crossAx val="513029888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33310,16 +33310,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33632,8 +33632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
